--- a/2) Декабрь/915/915 Разработка моб приложений_декабрь.xlsx
+++ b/2) Декабрь/915/915 Разработка моб приложений_декабрь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\2) Декабрь\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7213783-B99B-4C42-8D22-780C15D5313B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D192DD2A-F66D-4FF7-9166-6FE537A51DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15900" yWindow="2325" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="47">
   <si>
     <t>ФИО</t>
   </si>
@@ -139,6 +139,33 @@
   </si>
   <si>
     <t>Батретдинов Рустам</t>
+  </si>
+  <si>
+    <t>Лекция 1.3</t>
+  </si>
+  <si>
+    <t>Практика 2.5</t>
+  </si>
+  <si>
+    <t>Практика 2.6</t>
+  </si>
+  <si>
+    <t>Лекция 1.4</t>
+  </si>
+  <si>
+    <t>Лекция 2.1</t>
+  </si>
+  <si>
+    <t>Лекция 2.2</t>
+  </si>
+  <si>
+    <t>Практика 2.7</t>
+  </si>
+  <si>
+    <t>Практика 2.8</t>
+  </si>
+  <si>
+    <t>Лекция 2.3</t>
   </si>
 </sst>
 </file>
@@ -549,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,22 +594,21 @@
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" customWidth="1"/>
+    <col min="19" max="20" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
     <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="12.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -1399,6 +1425,87 @@
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" t="s">
+        <v>43</v>
+      </c>
+      <c r="S28" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1417,5 +1524,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>